--- a/LostAndFound/LostAndFound/Resources/LostAndFound.xlsx
+++ b/LostAndFound/LostAndFound/Resources/LostAndFound.xlsx
@@ -21,6 +21,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Zach</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +368,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LostAndFound/LostAndFound/Resources/LostAndFound.xlsx
+++ b/LostAndFound/LostAndFound/Resources/LostAndFound.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,23 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Josh</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>Zach</t>
   </si>
   <si>
@@ -51,16 +39,75 @@
   </si>
   <si>
     <t>Chris</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Maxwell</t>
+  </si>
+  <si>
+    <t>cctechwiz@gmail.com</t>
+  </si>
+  <si>
+    <t>unicycle_king@gmail.com</t>
+  </si>
+  <si>
+    <t>jam.maxwell@gmail.com</t>
+  </si>
+  <si>
+    <t>dinagodude@gmail.com</t>
+  </si>
+  <si>
+    <t>critter.max@gmail.com</t>
+  </si>
+  <si>
+    <t>435-592-2884</t>
+  </si>
+  <si>
+    <t>435-592-1234</t>
+  </si>
+  <si>
+    <t>T0012345</t>
+  </si>
+  <si>
+    <t>T0054321</t>
+  </si>
+  <si>
+    <t>T0015987</t>
+  </si>
+  <si>
+    <t>435-590-5555</t>
+  </si>
+  <si>
+    <t>TNumber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,13 +130,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,82 +417,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LostAndFound/LostAndFound/Resources/LostAndFound.xlsx
+++ b/LostAndFound/LostAndFound/Resources/LostAndFound.xlsx
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,6 +557,23 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>

--- a/LostAndFound/LostAndFound/Resources/LostAndFound.xlsx
+++ b/LostAndFound/LostAndFound/Resources/LostAndFound.xlsx
@@ -418,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="A8" sqref="A8"/>
@@ -485,17 +485,23 @@
       </c>
     </row>
     <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JESSAy</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>maerxhwelrl</t>
+        </is>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>123-456-8678</t>
+        </is>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -569,6 +575,329 @@
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
         <is>
           <t>123-111-9928</t>
         </is>

--- a/LostAndFound/LostAndFound/Resources/LostAndFound.xlsx
+++ b/LostAndFound/LostAndFound/Resources/LostAndFound.xlsx
@@ -418,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="A7" sqref="A7:XFD7"/>
@@ -557,6 +557,57 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>

--- a/LostAndFound/LostAndFound/Resources/LostAndFound.xlsx
+++ b/LostAndFound/LostAndFound/Resources/LostAndFound.xlsx
@@ -418,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="A7" sqref="A7:XFD7"/>
@@ -485,17 +485,23 @@
       </c>
     </row>
     <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JESSAy</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>maerxhwelrl</t>
+        </is>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>123-456-8678</t>
+        </is>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -603,6 +609,23 @@
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>123-111-9928</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>JERSH</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>MERXWERLS</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>123-111-9928</t>
         </is>
